--- a/DesignDoc/2D 桌球算法排期.xlsx
+++ b/DesignDoc/2D 桌球算法排期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,11 +178,16 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -523,12 +528,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,178 +743,166 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1185,359 +1215,358 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D32"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.9454545454545" customWidth="1"/>
-    <col min="2" max="2" width="42.2454545454545" customWidth="1"/>
-    <col min="3" max="3" width="23.1454545454545" customWidth="1"/>
-    <col min="4" max="4" width="15.8636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.675" customWidth="1"/>
+    <col min="3" max="3" width="37.675" customWidth="1"/>
+    <col min="4" max="4" width="23.675" customWidth="1"/>
+    <col min="5" max="5" width="15.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="2" ht="28.5" customHeight="1" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="47" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="55.5" customHeight="1" spans="2:7">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="15.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E4" s="5">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="15.5" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="15.5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="15.5" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="15.5" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="15.5" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="15.5" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E13" s="7">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="15.5" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="15.5" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="2:7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="15.5" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="15.5" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="15.5" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" ht="15.5" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" ht="15.5" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="15.5" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" ht="15.5" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" ht="29.5" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="2:5">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E23" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
+    <row r="24" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="15.5" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="15.5" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="15.5" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="15.5" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B28" s="9"/>
+      <c r="C28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="15.5" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E29" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
+    <row r="30" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" ht="15.5" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" ht="15.5" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" ht="15.5" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="2:5">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" ht="14.75"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E29:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
